--- a/biology/Médecine/Agustin_Sixto_Seco/Agustin_Sixto_Seco.xlsx
+++ b/biology/Médecine/Agustin_Sixto_Seco/Agustin_Sixto_Seco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agustin Sixto Seco, né à Mehá (Mugardos) (La Corogne) le 3 décembre 1926 et décédé à Saint-Jacques-de-Compostelle le 30 décembre 2004 est un médecin et un intellectuel galléguiste.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a élevé la traumatologie galicienne au premier plan de l'État, il a été président de la Société espagnole de traumatologie, en entretenant des très bonnes collaborations avec le Portugal, avec l'International College of Surgeons et avec la Société latinoaméricaine d'orthopédie.
 Dévoué essentiellement à la médecine, mais a aussi toujours collaboré aux travaux approfondis sur la culture galicienne dont il a été un des promoteurs de premier ordre : à l'éditorial Galaxia, à la fondation Penzol, au Musée du peuple galicien, au Centre Ramon Piñeiro ou à la fondation Camilo José Cela. Son premier travail et celui le plus aimé par lui fut : la Maison musée de Rosalía de Castro  à Padrón.
